--- a/mbs-perturbation/greedy/randomForest/smote/greedy-randomForest-smote-results.xlsx
+++ b/mbs-perturbation/greedy/randomForest/smote/greedy-randomForest-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8679245283018868</v>
+        <v>0.8755555555555555</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9956709956709957</v>
+        <v>0.9471153846153846</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9274193548387097</v>
+        <v>0.9099307159353348</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9760499241018721</v>
+        <v>0.9046782544378698</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.985781990521327</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.9928400954653938</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.9997573039940828</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.8054474708171206</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.9951923076923077</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.8903225806451613</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.9420187684911243</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8984375</v>
+        <v>0.6142433234421365</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.9951923076923077</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9465020576131687</v>
+        <v>0.7596330275229358</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9948616600790513</v>
+        <v>0.9492765347633136</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9532724056603774</v>
+        <v>0.856205668067228</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9991341991341992</v>
+        <v>0.9875</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9747842824903759</v>
+        <v>0.9105452839137651</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9941823168361846</v>
+        <v>0.9591461723372781</v>
       </c>
     </row>
   </sheetData>
